--- a/2016년 수강료 6월/요가 수강료.xlsx
+++ b/2016년 수강료 6월/요가 수강료.xlsx
@@ -185,28 +185,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>

--- a/2016년 수강료 6월/요가 수강료.xlsx
+++ b/2016년 수강료 6월/요가 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>*주야</t>
   </si>
@@ -91,51 +91,22 @@
   </si>
   <si>
     <t>박가은</t>
-  </si>
-  <si>
-    <t>시수</t>
-  </si>
-  <si>
-    <t>수강료</t>
-  </si>
-  <si>
-    <t>수용비</t>
-  </si>
-  <si>
-    <t>계</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,40 +147,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,512 +477,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="9.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F17" si="0">F$29</f>
-        <v>18900</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="F2" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="F3" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="F5" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="F6" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="F7" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="F9" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="F10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>23</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="F11" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="F14" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="F15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
         <v>24</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="F17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>35000</v>
-      </c>
-      <c r="C27" s="1">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3">
-        <f>B27*C27</f>
-        <v>280000</v>
-      </c>
-      <c r="F27" s="3">
-        <f>ROUNDUP(E27/16,-1)</f>
-        <v>17500</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <f>E27</f>
-        <v>280000</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E28" s="3">
-        <f>B28*C28</f>
-        <v>22400</v>
-      </c>
-      <c r="F28" s="3">
-        <f>ROUNDUP(E28/16,-1)</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="3">
-        <f>SUM(F27:F28)</f>
-        <v>18900</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1020,7 +923,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1033,7 +936,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
